--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF5FAA9-FE47-4394-8C9B-AEDD2A597DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0831E0D-DB3B-43C8-8E2B-9D1286AEFEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="60" windowWidth="13740" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -982,10 +982,10 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0831E0D-DB3B-43C8-8E2B-9D1286AEFEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1108AB3A-07D1-493B-B1E5-098161330388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="60" windowWidth="13740" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="76">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -463,26 +463,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1’53</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1’41</t>
-  </si>
-  <si>
-    <t>1’42</t>
-  </si>
-  <si>
-    <t>5’06</t>
-  </si>
-  <si>
-    <t>7’50</t>
-  </si>
-  <si>
-    <t>7’50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>紙ﾀｵﾙ ﾊﾟﾋﾟｰ(200枚) HR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -494,10 +474,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1’11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>紙ﾀｵﾙ ﾚﾅｰｼﾞｭEX(200枚) 35入 HR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -509,10 +485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1’24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ｴﾙｳﾞｪｰﾙｴｺｽﾏｰﾄ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -569,7 +541,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7’58</t>
+    <t>1'24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7'50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1'11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1'53</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1'41</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1'42</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5'06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7'58</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -982,35 +982,35 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1107,13 +1107,13 @@
         <v>1062460</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>35</v>
@@ -1142,7 +1142,7 @@
         <v>84</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X2" s="1">
         <v>16.53</v>
@@ -1166,13 +1166,13 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>35</v>
@@ -1184,7 +1184,7 @@
         <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="7"/>
@@ -1201,7 +1201,7 @@
         <v>126.9</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="X3" s="1">
         <v>9.09</v>
@@ -1289,7 +1289,7 @@
         <v>469.7</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="X4" s="1">
         <v>19.079999999999998</v>
@@ -1377,7 +1377,7 @@
         <v>469.7</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="X5" s="1">
         <v>19.079999999999998</v>
@@ -1466,7 +1466,7 @@
         <v>469.7</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="X6" s="1">
         <v>19.079999999999998</v>
@@ -1555,7 +1555,7 @@
         <v>469.7</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="X7" s="1">
         <v>19.079999999999998</v>
@@ -1644,7 +1644,7 @@
         <v>469.7</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="X8" s="1">
         <v>19.079999999999998</v>
@@ -2051,13 +2051,13 @@
         <v>9962240</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>35</v>
@@ -2086,7 +2086,7 @@
         <v>71</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -2167,7 +2167,7 @@
         <v>113.2</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -2248,7 +2248,7 @@
         <v>113.2</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -2329,7 +2329,7 @@
         <v>113.2</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -2410,7 +2410,7 @@
         <v>113.2</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -2491,7 +2491,7 @@
         <v>113.2</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
@@ -2570,7 +2570,7 @@
         <v>101</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="X20" s="12">
         <v>6.1833333333333336</v>
@@ -2657,7 +2657,7 @@
         <v>101</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="X21" s="12">
         <v>6.1833333333333336</v>
@@ -2744,7 +2744,7 @@
         <v>101</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="X22" s="12">
         <v>6.1833333333333336</v>
@@ -2831,7 +2831,7 @@
         <v>101</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="X23" s="12">
         <v>6.1833333333333336</v>
@@ -2918,7 +2918,7 @@
         <v>101</v>
       </c>
       <c r="W24" s="13" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="X24" s="13">
         <v>6.1833333333333336</v>
@@ -3005,7 +3005,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="X25" s="12">
         <v>12.29</v>
@@ -3092,7 +3092,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="X26" s="12">
         <v>12.29</v>
@@ -3179,7 +3179,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="X27" s="12">
         <v>12.29</v>
@@ -3266,7 +3266,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="X28" s="12">
         <v>12.29</v>
@@ -3353,7 +3353,7 @@
         <v>102.33333333333333</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="X29" s="13">
         <v>12.29</v>
@@ -3440,7 +3440,7 @@
         <v>306</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="X30" s="12">
         <v>6.0799999999999992</v>
@@ -3527,7 +3527,7 @@
         <v>306</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="X31" s="12">
         <v>6.0799999999999992</v>
@@ -3614,7 +3614,7 @@
         <v>306</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="X32" s="12">
         <v>6.0799999999999992</v>
@@ -3701,7 +3701,7 @@
         <v>306</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="X33" s="12">
         <v>6.0799999999999992</v>
@@ -3788,7 +3788,7 @@
         <v>306</v>
       </c>
       <c r="W34" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="X34" s="12">
         <v>6.0799999999999992</v>
@@ -3812,13 +3812,13 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>35</v>
@@ -3847,7 +3847,7 @@
         <v>418</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X35" s="16">
         <v>11.39</v>
@@ -4190,7 +4190,9 @@
       <c r="J40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1">
+        <v>16</v>
+      </c>
       <c r="L40" s="1">
         <v>264</v>
       </c>
@@ -4198,28 +4200,34 @@
         <f t="shared" si="6"/>
         <v>1.306930693069307</v>
       </c>
-      <c r="N40" s="1"/>
+      <c r="N40" s="1">
+        <v>77</v>
+      </c>
       <c r="O40" s="5">
         <f t="shared" si="10"/>
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="P40" s="4">
         <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="Q40" s="1"/>
+        <v>143.08333333333331</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>321</v>
+      </c>
       <c r="R40" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.2434478741991848</v>
       </c>
       <c r="S40" s="4">
         <f t="shared" si="13"/>
-        <v>-1.306930693069307</v>
-      </c>
-      <c r="T40" s="1"/>
+        <v>0.93651718112987781</v>
+      </c>
+      <c r="T40" s="1">
+        <v>7.25</v>
+      </c>
       <c r="U40" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4176</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -4258,28 +4266,30 @@
         <v>46</v>
       </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1">
+        <v>360</v>
+      </c>
       <c r="M41" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.7821782178217822</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="5">
         <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="11"/>
+        <v>202</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="4">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P41" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S41" s="4" t="str">
+      <c r="S41" s="4">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-1.7821782178217822</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="5">

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61B31B3-761F-4376-8331-3AF55341AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2807F31-9D1E-4F62-BC63-867B92553B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="115">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -726,6 +726,111 @@
   </si>
   <si>
     <t>NEWステップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0'58</t>
+  </si>
+  <si>
+    <t>5'28</t>
+  </si>
+  <si>
+    <t>2'00</t>
+  </si>
+  <si>
+    <t>中パ タオル（仮）</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社トーヨ</t>
+    <rPh sb="0" eb="4">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾀｳﾊﾟｰﾗｲｽﾞM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中越ﾊﾟﾙﾌﾟ原紙ﾀｵﾙ（仮）</t>
+    <rPh sb="0" eb="2">
+      <t>チュウエツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中ﾊﾟ ﾀｵﾙ（仮）</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾀｳﾊﾟｰﾗｲｽﾞS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>220×170</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾀｳﾊﾟｰｽﾉｰｸM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾀｳﾊﾟｰｽﾉｰｸS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｴｺｽﾏｰﾄ小判</t>
+    <rPh sb="6" eb="8">
+      <t>コバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>株式会社EBS</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>170×210</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｴｺｾﾚｸﾄ中判</t>
+    <rPh sb="6" eb="8">
+      <t>チュウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｴｺｾﾚｸﾄ小判</t>
+    <rPh sb="6" eb="8">
+      <t>コバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾌｧｲﾝｿﾌﾄ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1153,19 +1258,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441149DB-3210-4AF1-BCB6-D26439EFA1CE}">
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N71" sqref="N71"/>
+      <selection pane="bottomRight" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
@@ -5321,12 +5426,24 @@
         <f t="shared" si="26"/>
         <v>12441.6</v>
       </c>
-      <c r="V50" s="1"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
+      <c r="V50" s="14">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="W50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X50" s="14">
+        <v>8.7833333333333332</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="Z50" s="14">
+        <v>3.2133333333333334</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="1">
@@ -5396,12 +5513,24 @@
         <f t="shared" ref="U51:U53" si="32">32*18*T51</f>
         <v>7920</v>
       </c>
-      <c r="V51" s="1"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
+      <c r="V51" s="14">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="W51" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X51" s="14">
+        <v>8.7833333333333332</v>
+      </c>
+      <c r="Y51" s="14">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="Z51" s="14">
+        <v>3.2133333333333334</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="1">
@@ -5471,12 +5600,24 @@
         <f t="shared" si="32"/>
         <v>11923.199999999999</v>
       </c>
-      <c r="V52" s="1"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
+      <c r="V52" s="14">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="W52" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X52" s="14">
+        <v>8.7833333333333332</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="Z52" s="14">
+        <v>3.2133333333333334</v>
+      </c>
+      <c r="AA52" s="14">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="1">
@@ -5546,12 +5687,24 @@
         <f t="shared" si="32"/>
         <v>8208</v>
       </c>
-      <c r="V53" s="1"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
+      <c r="V53" s="14">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="W53" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="X53" s="14">
+        <v>8.7833333333333332</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>3.2133333333333334</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="1">
@@ -5621,12 +5774,24 @@
         <f t="shared" ref="U54:U61" si="38">32*18*T54</f>
         <v>8928</v>
       </c>
-      <c r="V54" s="1"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
+      <c r="V54" s="14">
+        <v>328.66666666666669</v>
+      </c>
+      <c r="W54" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="X54" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="Y54" s="14">
+        <v>3.57</v>
+      </c>
+      <c r="Z54" s="14">
+        <v>3.0733333333333328</v>
+      </c>
+      <c r="AA54" s="14">
+        <v>0.76333333333333331</v>
+      </c>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="1">
@@ -5696,12 +5861,24 @@
         <f t="shared" si="38"/>
         <v>15206.4</v>
       </c>
-      <c r="V55" s="1"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
+      <c r="V55" s="14">
+        <v>328.66666666666669</v>
+      </c>
+      <c r="W55" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="X55" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>3.57</v>
+      </c>
+      <c r="Z55" s="14">
+        <v>3.0733333333333328</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>0.76333333333333331</v>
+      </c>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="1">
@@ -5771,12 +5948,24 @@
         <f t="shared" si="38"/>
         <v>12556.800000000001</v>
       </c>
-      <c r="V56" s="1"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
+      <c r="V56" s="14">
+        <v>328.66666666666669</v>
+      </c>
+      <c r="W56" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="X56" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>3.57</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>3.0733333333333328</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>0.76333333333333331</v>
+      </c>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="1">
@@ -5846,12 +6035,24 @@
         <f t="shared" si="38"/>
         <v>8467.1999999999989</v>
       </c>
-      <c r="V57" s="1"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
+      <c r="V57" s="14">
+        <v>328.66666666666669</v>
+      </c>
+      <c r="W57" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="X57" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="Y57" s="14">
+        <v>3.57</v>
+      </c>
+      <c r="Z57" s="14">
+        <v>3.0733333333333328</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>0.76333333333333331</v>
+      </c>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="1">
@@ -5921,12 +6122,24 @@
         <f t="shared" si="38"/>
         <v>4953.5999999999995</v>
       </c>
-      <c r="V58" s="1"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
+      <c r="V58" s="14">
+        <v>120.66666666666667</v>
+      </c>
+      <c r="W58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X58" s="14">
+        <v>10.846666666666666</v>
+      </c>
+      <c r="Y58" s="14">
+        <v>3.9966666666666661</v>
+      </c>
+      <c r="Z58" s="14">
+        <v>3.0733333333333337</v>
+      </c>
+      <c r="AA58" s="14">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="1">
@@ -5996,12 +6209,24 @@
         <f t="shared" si="38"/>
         <v>7632</v>
       </c>
-      <c r="V59" s="1"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
+      <c r="V59" s="14">
+        <v>120.66666666666667</v>
+      </c>
+      <c r="W59" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X59" s="14">
+        <v>10.846666666666666</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>3.9966666666666661</v>
+      </c>
+      <c r="Z59" s="14">
+        <v>3.0733333333333337</v>
+      </c>
+      <c r="AA59" s="14">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="1">
@@ -6071,12 +6296,24 @@
         <f t="shared" si="38"/>
         <v>4492.8</v>
       </c>
-      <c r="V60" s="1"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
+      <c r="V60" s="14">
+        <v>120.66666666666667</v>
+      </c>
+      <c r="W60" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X60" s="14">
+        <v>10.846666666666666</v>
+      </c>
+      <c r="Y60" s="14">
+        <v>3.9966666666666661</v>
+      </c>
+      <c r="Z60" s="14">
+        <v>3.0733333333333337</v>
+      </c>
+      <c r="AA60" s="14">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="1">
@@ -6146,12 +6383,24 @@
         <f t="shared" si="38"/>
         <v>8006.4000000000005</v>
       </c>
-      <c r="V61" s="1"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
+      <c r="V61" s="14">
+        <v>120.66666666666667</v>
+      </c>
+      <c r="W61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X61" s="14">
+        <v>10.846666666666666</v>
+      </c>
+      <c r="Y61" s="14">
+        <v>3.9966666666666661</v>
+      </c>
+      <c r="Z61" s="14">
+        <v>3.0733333333333337</v>
+      </c>
+      <c r="AA61" s="14">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="1">
@@ -6887,28 +7136,34 @@
         <f t="shared" ref="M71" si="57">L71/(H71+2)</f>
         <v>1.0264900662251655</v>
       </c>
-      <c r="N71" s="1"/>
+      <c r="N71" s="1">
+        <v>154</v>
+      </c>
       <c r="O71" s="5">
         <f t="shared" ref="O71:O72" si="58">L71-N71</f>
-        <v>310</v>
+        <v>156</v>
       </c>
       <c r="P71" s="4">
         <f t="shared" ref="P71:P72" si="59">IFERROR(O71/M71,"")</f>
-        <v>302</v>
-      </c>
-      <c r="Q71" s="1"/>
+        <v>151.97419354838712</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>328</v>
+      </c>
       <c r="R71" s="4">
         <f t="shared" ref="R71:R72" si="60">IFERROR(Q71/P71,"")</f>
-        <v>0</v>
+        <v>2.1582611648836809</v>
       </c>
       <c r="S71" s="4">
         <f t="shared" ref="S71:S72" si="61">IFERROR(R71-M71,"")</f>
-        <v>-1.0264900662251655</v>
-      </c>
-      <c r="T71" s="1"/>
+        <v>1.1317710986585154</v>
+      </c>
+      <c r="T71" s="1">
+        <v>8.0500000000000007</v>
+      </c>
       <c r="U71" s="5">
         <f t="shared" ref="U71:U72" si="62">32*18*T71</f>
-        <v>0</v>
+        <v>4636.8</v>
       </c>
       <c r="V71" s="1"/>
       <c r="W71" s="9"/>
@@ -6948,34 +7203,44 @@
       <c r="J72" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="K72" s="1">
+        <v>17</v>
+      </c>
+      <c r="L72" s="1">
+        <v>316</v>
+      </c>
       <c r="M72" s="4">
         <f>L72/(H72+2)</f>
-        <v>0</v>
-      </c>
-      <c r="N72" s="1"/>
+        <v>1.0463576158940397</v>
+      </c>
+      <c r="N72" s="1">
+        <v>169</v>
+      </c>
       <c r="O72" s="5">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="P72" s="4" t="str">
+        <v>147</v>
+      </c>
+      <c r="P72" s="4">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="4" t="str">
+        <v>140.48734177215189</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>301</v>
+      </c>
+      <c r="R72" s="4">
         <f t="shared" si="60"/>
-        <v/>
-      </c>
-      <c r="S72" s="4" t="str">
+        <v>2.142541784925891</v>
+      </c>
+      <c r="S72" s="4">
         <f t="shared" si="61"/>
-        <v/>
-      </c>
-      <c r="T72" s="1"/>
+        <v>1.0961841690318512</v>
+      </c>
+      <c r="T72" s="1">
+        <v>11.4</v>
+      </c>
       <c r="U72" s="5">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>6566.4000000000005</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
@@ -7015,34 +7280,44 @@
       <c r="J73" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="K73" s="1">
+        <v>16</v>
+      </c>
+      <c r="L73" s="1">
+        <v>312</v>
+      </c>
       <c r="M73" s="4">
         <f>L73/(H73+2)</f>
-        <v>0</v>
-      </c>
-      <c r="N73" s="1"/>
+        <v>1.0331125827814569</v>
+      </c>
+      <c r="N73" s="1">
+        <v>139</v>
+      </c>
       <c r="O73" s="5">
         <f t="shared" ref="O73:O76" si="63">L73-N73</f>
-        <v>0</v>
-      </c>
-      <c r="P73" s="4" t="str">
+        <v>173</v>
+      </c>
+      <c r="P73" s="4">
         <f t="shared" ref="P73:P76" si="64">IFERROR(O73/M73,"")</f>
-        <v/>
-      </c>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="4" t="str">
+        <v>167.4551282051282</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>342</v>
+      </c>
+      <c r="R73" s="4">
         <f t="shared" ref="R73:R76" si="65">IFERROR(Q73/P73,"")</f>
-        <v/>
-      </c>
-      <c r="S73" s="4" t="str">
+        <v>2.0423381694292386</v>
+      </c>
+      <c r="S73" s="4">
         <f t="shared" ref="S73:S76" si="66">IFERROR(R73-M73,"")</f>
-        <v/>
-      </c>
-      <c r="T73" s="1"/>
+        <v>1.0092255866477817</v>
+      </c>
+      <c r="T73" s="1">
+        <v>10.85</v>
+      </c>
       <c r="U73" s="5">
         <f t="shared" ref="U73:U76" si="67">32*18*T73</f>
-        <v>0</v>
+        <v>6249.5999999999995</v>
       </c>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
@@ -7056,39 +7331,61 @@
         <v>2025</v>
       </c>
       <c r="B74" s="3">
-        <v>45889</v>
+        <v>45926</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" s="1">
+        <v>200</v>
+      </c>
+      <c r="I74" s="1">
+        <v>35</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="1">
+        <v>16</v>
+      </c>
+      <c r="L74" s="1">
+        <v>367</v>
+      </c>
       <c r="M74" s="4">
         <f t="shared" ref="M74:M76" si="68">L74/(H74+2)</f>
-        <v>0</v>
-      </c>
-      <c r="N74" s="1"/>
+        <v>1.8168316831683169</v>
+      </c>
+      <c r="N74" s="1">
+        <v>162</v>
+      </c>
       <c r="O74" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="4" t="str">
+        <v>205</v>
+      </c>
+      <c r="P74" s="4">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="4" t="str">
+        <v>112.83378746594005</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>352</v>
+      </c>
+      <c r="R74" s="4">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="S74" s="4" t="str">
+        <v>3.1196329389036466</v>
+      </c>
+      <c r="S74" s="4">
         <f t="shared" si="66"/>
-        <v/>
+        <v>1.3028012557353297</v>
       </c>
       <c r="T74" s="1"/>
       <c r="U74" s="5">
@@ -7107,39 +7404,55 @@
         <v>2025</v>
       </c>
       <c r="B75" s="3">
-        <v>45890</v>
+        <v>45929</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" s="1">
+        <v>200</v>
+      </c>
+      <c r="I75" s="1">
+        <v>35</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="L75" s="1">
+        <v>367</v>
+      </c>
       <c r="M75" s="4">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1.8168316831683169</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="4" t="str">
+        <v>367</v>
+      </c>
+      <c r="P75" s="4">
         <f t="shared" si="64"/>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q75" s="1"/>
-      <c r="R75" s="4" t="str">
+      <c r="R75" s="4">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="S75" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S75" s="4">
         <f t="shared" si="66"/>
-        <v/>
+        <v>-1.8168316831683169</v>
       </c>
       <c r="T75" s="1"/>
       <c r="U75" s="5">
@@ -7158,16 +7471,30 @@
         <v>2025</v>
       </c>
       <c r="B76" s="3">
-        <v>45891</v>
+        <v>45930</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="1">
+        <v>200</v>
+      </c>
+      <c r="I76" s="1">
+        <v>35</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="4">
@@ -7204,6 +7531,2546 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
+    <row r="77" spans="1:27">
+      <c r="A77" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B77" s="3">
+        <v>45931</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="1">
+        <v>200</v>
+      </c>
+      <c r="I77" s="1">
+        <v>35</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="4">
+        <f t="shared" ref="M77:M92" si="69">L77/(H77+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="5">
+        <f t="shared" ref="O77:O92" si="70">L77-N77</f>
+        <v>0</v>
+      </c>
+      <c r="P77" s="4" t="str">
+        <f t="shared" ref="P77:P92" si="71">IFERROR(O77/M77,"")</f>
+        <v/>
+      </c>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="4" t="str">
+        <f t="shared" ref="R77:R92" si="72">IFERROR(Q77/P77,"")</f>
+        <v/>
+      </c>
+      <c r="S77" s="4" t="str">
+        <f t="shared" ref="S77:S92" si="73">IFERROR(R77-M77,"")</f>
+        <v/>
+      </c>
+      <c r="T77" s="1"/>
+      <c r="U77" s="5">
+        <f t="shared" ref="U77:U92" si="74">32*18*T77</f>
+        <v>0</v>
+      </c>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="A78" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B78" s="3">
+        <v>45932</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="1">
+        <v>200</v>
+      </c>
+      <c r="I78" s="1">
+        <v>35</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="1"/>
+      <c r="O78" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S78" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T78" s="1"/>
+      <c r="U78" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B79" s="3">
+        <v>45933</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" s="1">
+        <v>200</v>
+      </c>
+      <c r="I79" s="1">
+        <v>35</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="1"/>
+      <c r="O79" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S79" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T79" s="1"/>
+      <c r="U79" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="A80" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B80" s="3">
+        <v>45936</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="1">
+        <v>200</v>
+      </c>
+      <c r="I80" s="1">
+        <v>35</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="1"/>
+      <c r="O80" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S80" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T80" s="1"/>
+      <c r="U80" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B81" s="3">
+        <v>45937</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="1">
+        <v>200</v>
+      </c>
+      <c r="I81" s="1">
+        <v>35</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="1"/>
+      <c r="O81" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S81" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T81" s="1"/>
+      <c r="U81" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="A82" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B82" s="3">
+        <v>45938</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="1">
+        <v>200</v>
+      </c>
+      <c r="I82" s="1">
+        <v>30</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="1"/>
+      <c r="O82" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S82" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T82" s="1"/>
+      <c r="U82" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B83" s="3">
+        <v>45939</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" s="1">
+        <v>200</v>
+      </c>
+      <c r="I83" s="1">
+        <v>30</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="1"/>
+      <c r="O83" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S83" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T83" s="1"/>
+      <c r="U83" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B84" s="3">
+        <v>45940</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" s="1">
+        <v>200</v>
+      </c>
+      <c r="I84" s="1">
+        <v>30</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S84" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T84" s="1"/>
+      <c r="U84" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="A85" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B85" s="3">
+        <v>45944</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" s="1">
+        <v>200</v>
+      </c>
+      <c r="I85" s="1">
+        <v>30</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="1"/>
+      <c r="O85" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S85" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T85" s="1"/>
+      <c r="U85" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="A86" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B86" s="3">
+        <v>45945</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="1">
+        <v>200</v>
+      </c>
+      <c r="I86" s="1">
+        <v>42</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="1"/>
+      <c r="O86" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S86" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T86" s="1"/>
+      <c r="U86" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="A87" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B87" s="3">
+        <v>45946</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="1">
+        <v>200</v>
+      </c>
+      <c r="I87" s="1">
+        <v>42</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="1"/>
+      <c r="O87" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S87" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T87" s="1"/>
+      <c r="U87" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B88" s="3">
+        <v>45947</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" s="1">
+        <v>200</v>
+      </c>
+      <c r="I88" s="1">
+        <v>42</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="1"/>
+      <c r="O88" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S88" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T88" s="1"/>
+      <c r="U88" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="A89" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B89" s="3">
+        <v>45950</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" s="1">
+        <v>200</v>
+      </c>
+      <c r="I89" s="1">
+        <v>42</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="1"/>
+      <c r="O89" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S89" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T89" s="1"/>
+      <c r="U89" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="A90" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B90" s="3">
+        <v>45951</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" s="1">
+        <v>200</v>
+      </c>
+      <c r="I90" s="1">
+        <v>35</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="1"/>
+      <c r="O90" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S90" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T90" s="1"/>
+      <c r="U90" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="A91" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B91" s="3">
+        <v>45952</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="1">
+        <v>200</v>
+      </c>
+      <c r="I91" s="1">
+        <v>35</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="1"/>
+      <c r="O91" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S91" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T91" s="1"/>
+      <c r="U91" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="A92" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B92" s="3">
+        <v>45953</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" s="1">
+        <v>200</v>
+      </c>
+      <c r="I92" s="1">
+        <v>35</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="4">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="1"/>
+      <c r="O92" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="4" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="S92" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="T92" s="1"/>
+      <c r="U92" s="5">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B93" s="3">
+        <v>45954</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="1">
+        <v>200</v>
+      </c>
+      <c r="I93" s="1">
+        <v>35</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="4">
+        <f t="shared" ref="M93:M111" si="75">L93/(H93+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="1"/>
+      <c r="O93" s="5">
+        <f t="shared" ref="O93:O111" si="76">L93-N93</f>
+        <v>0</v>
+      </c>
+      <c r="P93" s="4" t="str">
+        <f t="shared" ref="P93:P111" si="77">IFERROR(O93/M93,"")</f>
+        <v/>
+      </c>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="4" t="str">
+        <f t="shared" ref="R93:R111" si="78">IFERROR(Q93/P93,"")</f>
+        <v/>
+      </c>
+      <c r="S93" s="4" t="str">
+        <f t="shared" ref="S93:S111" si="79">IFERROR(R93-M93,"")</f>
+        <v/>
+      </c>
+      <c r="T93" s="1"/>
+      <c r="U93" s="5">
+        <f t="shared" ref="U93:U111" si="80">32*18*T93</f>
+        <v>0</v>
+      </c>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B94" s="3">
+        <v>45957</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="1">
+        <v>200</v>
+      </c>
+      <c r="I94" s="1">
+        <v>42</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="1"/>
+      <c r="O94" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S94" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T94" s="1"/>
+      <c r="U94" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="A95" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B95" s="3">
+        <v>45958</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" s="1">
+        <v>200</v>
+      </c>
+      <c r="I95" s="1">
+        <v>42</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="1"/>
+      <c r="O95" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S95" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T95" s="1"/>
+      <c r="U95" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B96" s="3">
+        <v>45959</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="1">
+        <v>200</v>
+      </c>
+      <c r="I96" s="1">
+        <v>42</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="1"/>
+      <c r="O96" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S96" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T96" s="1"/>
+      <c r="U96" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B97" s="3">
+        <v>45960</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="1">
+        <v>200</v>
+      </c>
+      <c r="I97" s="1">
+        <v>42</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S97" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T97" s="1"/>
+      <c r="U97" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="A98" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B98" s="3">
+        <v>45961</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="1">
+        <v>200</v>
+      </c>
+      <c r="I98" s="1">
+        <v>42</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S98" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T98" s="1"/>
+      <c r="U98" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B99" s="3">
+        <v>45965</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" s="1">
+        <v>200</v>
+      </c>
+      <c r="I99" s="1">
+        <v>42</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="1"/>
+      <c r="O99" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S99" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T99" s="1"/>
+      <c r="U99" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="A100" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B100" s="3">
+        <v>45966</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" s="1">
+        <v>200</v>
+      </c>
+      <c r="I100" s="1">
+        <v>42</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="1"/>
+      <c r="O100" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S100" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T100" s="1"/>
+      <c r="U100" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B101" s="3">
+        <v>45967</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="1">
+        <v>200</v>
+      </c>
+      <c r="I101" s="1">
+        <v>42</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="1"/>
+      <c r="O101" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S101" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T101" s="1"/>
+      <c r="U101" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="A102" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B102" s="3">
+        <v>45968</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" s="1">
+        <v>200</v>
+      </c>
+      <c r="I102" s="1">
+        <v>35</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="1"/>
+      <c r="O102" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S102" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T102" s="1"/>
+      <c r="U102" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+    </row>
+    <row r="103" spans="1:27">
+      <c r="A103" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B103" s="3">
+        <v>45971</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="1">
+        <v>200</v>
+      </c>
+      <c r="I103" s="1">
+        <v>35</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="1"/>
+      <c r="O103" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S103" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T103" s="1"/>
+      <c r="U103" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="A104" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B104" s="3">
+        <v>45972</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" s="1">
+        <v>200</v>
+      </c>
+      <c r="I104" s="1">
+        <v>35</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N104" s="1"/>
+      <c r="O104" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P104" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S104" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T104" s="1"/>
+      <c r="U104" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="A105" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B105" s="3">
+        <v>45973</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H105" s="1">
+        <v>200</v>
+      </c>
+      <c r="I105" s="1">
+        <v>35</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="1"/>
+      <c r="O105" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P105" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S105" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T105" s="1"/>
+      <c r="U105" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+    </row>
+    <row r="106" spans="1:27">
+      <c r="A106" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B106" s="3">
+        <v>45974</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" s="1">
+        <v>200</v>
+      </c>
+      <c r="I106" s="1">
+        <v>42</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N106" s="1"/>
+      <c r="O106" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P106" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S106" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T106" s="1"/>
+      <c r="U106" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+    </row>
+    <row r="107" spans="1:27">
+      <c r="A107" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B107" s="3">
+        <v>45975</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" s="1">
+        <v>200</v>
+      </c>
+      <c r="I107" s="1">
+        <v>42</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N107" s="1"/>
+      <c r="O107" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P107" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S107" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T107" s="1"/>
+      <c r="U107" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+    </row>
+    <row r="108" spans="1:27">
+      <c r="A108" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B108" s="3">
+        <v>45978</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" s="1">
+        <v>200</v>
+      </c>
+      <c r="I108" s="1">
+        <v>42</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="1"/>
+      <c r="O108" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P108" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S108" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T108" s="1"/>
+      <c r="U108" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+    </row>
+    <row r="109" spans="1:27">
+      <c r="A109" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B109" s="3">
+        <v>45979</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" s="1">
+        <v>200</v>
+      </c>
+      <c r="I109" s="1">
+        <v>42</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="1"/>
+      <c r="O109" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P109" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S109" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T109" s="1"/>
+      <c r="U109" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+    </row>
+    <row r="110" spans="1:27">
+      <c r="A110" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B110" s="3">
+        <v>45980</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N110" s="1"/>
+      <c r="O110" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P110" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S110" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T110" s="1"/>
+      <c r="U110" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+    </row>
+    <row r="111" spans="1:27">
+      <c r="A111" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B111" s="3">
+        <v>45981</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="4">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N111" s="1"/>
+      <c r="O111" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P111" s="4" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="4" t="str">
+        <f t="shared" si="78"/>
+        <v/>
+      </c>
+      <c r="S111" s="4" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
+      <c r="T111" s="1"/>
+      <c r="U111" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+    </row>
+    <row r="112" spans="1:27">
+      <c r="A112" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B112" s="3">
+        <v>45982</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="4">
+        <f t="shared" ref="M112:M118" si="81">L112/(H112+2)</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="O112" s="5">
+        <f t="shared" ref="O112:O118" si="82">L112-N112</f>
+        <v>0</v>
+      </c>
+      <c r="P112" s="4" t="str">
+        <f t="shared" ref="P112:P118" si="83">IFERROR(O112/M112,"")</f>
+        <v/>
+      </c>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="4" t="str">
+        <f t="shared" ref="R112:R118" si="84">IFERROR(Q112/P112,"")</f>
+        <v/>
+      </c>
+      <c r="S112" s="4" t="str">
+        <f t="shared" ref="S112:S118" si="85">IFERROR(R112-M112,"")</f>
+        <v/>
+      </c>
+      <c r="T112" s="1"/>
+      <c r="U112" s="5">
+        <f t="shared" ref="U112:U118" si="86">32*18*T112</f>
+        <v>0</v>
+      </c>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B113" s="3">
+        <v>45986</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="1"/>
+      <c r="O113" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P113" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S113" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T113" s="1"/>
+      <c r="U113" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="A114" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B114" s="3">
+        <v>45987</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="1"/>
+      <c r="O114" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P114" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S114" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T114" s="1"/>
+      <c r="U114" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="A115" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B115" s="3">
+        <v>45988</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N115" s="1"/>
+      <c r="O115" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P115" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S115" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T115" s="1"/>
+      <c r="U115" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="A116" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B116" s="3">
+        <v>45989</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="1"/>
+      <c r="O116" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P116" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S116" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T116" s="1"/>
+      <c r="U116" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+    </row>
+    <row r="117" spans="1:27">
+      <c r="A117" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B117" s="3">
+        <v>45990</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="1"/>
+      <c r="O117" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P117" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S117" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T117" s="1"/>
+      <c r="U117" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+    </row>
+    <row r="118" spans="1:27">
+      <c r="A118" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B118" s="3">
+        <v>45991</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="4">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N118" s="1"/>
+      <c r="O118" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P118" s="4" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="4" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="S118" s="4" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="T118" s="1"/>
+      <c r="U118" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugyou05\Desktop\paper-towel-cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2807F31-9D1E-4F62-BC63-867B92553B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C92D7-C261-4DDA-8BF7-EF9ABE6B1432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="114">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -767,16 +767,6 @@
       <t>ゲンシ</t>
     </rPh>
     <rPh sb="13" eb="14">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>中ﾊﾟ ﾀｵﾙ（仮）</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
       <t>カリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1261,35 +1251,35 @@
   <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K75" sqref="K75"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -7341,7 +7331,7 @@
         <v>23</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>34</v>
@@ -7605,7 +7595,7 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>101</v>
@@ -7668,7 +7658,7 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>101</v>
@@ -7731,7 +7721,7 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>101</v>
@@ -7794,7 +7784,7 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>101</v>
@@ -8109,7 +8099,7 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>65</v>
@@ -8125,7 +8115,7 @@
         <v>42</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -8172,7 +8162,7 @@
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>65</v>
@@ -8188,7 +8178,7 @@
         <v>42</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -8235,7 +8225,7 @@
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>65</v>
@@ -8251,7 +8241,7 @@
         <v>42</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -8298,7 +8288,7 @@
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>65</v>
@@ -8314,7 +8304,7 @@
         <v>42</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -8361,7 +8351,7 @@
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>65</v>
@@ -8424,7 +8414,7 @@
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>65</v>
@@ -8487,7 +8477,7 @@
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>65</v>
@@ -8550,7 +8540,7 @@
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>65</v>
@@ -8613,7 +8603,7 @@
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>65</v>
@@ -8629,7 +8619,7 @@
         <v>42</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -8676,7 +8666,7 @@
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>65</v>
@@ -8692,7 +8682,7 @@
         <v>42</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -8739,7 +8729,7 @@
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>65</v>
@@ -8755,7 +8745,7 @@
         <v>42</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -8802,7 +8792,7 @@
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>65</v>
@@ -8818,7 +8808,7 @@
         <v>42</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -8865,10 +8855,10 @@
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
@@ -8881,7 +8871,7 @@
         <v>42</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -8928,10 +8918,10 @@
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
@@ -8944,7 +8934,7 @@
         <v>42</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -8991,10 +8981,10 @@
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
@@ -9007,7 +8997,7 @@
         <v>42</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -9054,10 +9044,10 @@
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
@@ -9070,7 +9060,7 @@
         <v>42</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -9117,10 +9107,10 @@
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
@@ -9180,10 +9170,10 @@
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
@@ -9243,10 +9233,10 @@
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
@@ -9306,10 +9296,10 @@
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
@@ -9369,10 +9359,10 @@
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
@@ -9385,7 +9375,7 @@
         <v>42</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -9432,10 +9422,10 @@
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
@@ -9448,7 +9438,7 @@
         <v>42</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -9495,10 +9485,10 @@
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1" t="s">
@@ -9511,7 +9501,7 @@
         <v>42</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -9558,10 +9548,10 @@
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1" t="s">
@@ -9574,7 +9564,7 @@
         <v>42</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>

--- a/使用量調査.xlsx
+++ b/使用量調査.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugyou05\Desktop\paper-towel-cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\全社共有\営業共有フォルダ\営業業務\データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C92D7-C261-4DDA-8BF7-EF9ABE6B1432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40ED0BE-2B75-467B-BA11-5E901DF7B53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="125">
   <si>
     <t>補充品</t>
     <rPh sb="0" eb="3">
@@ -821,6 +821,56 @@
   </si>
   <si>
     <t>ﾌｧｲﾝｿﾌﾄ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3'13</t>
+  </si>
+  <si>
+    <t>3'35</t>
+  </si>
+  <si>
+    <t>10'27</t>
+  </si>
+  <si>
+    <t>ライ〇M</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ライ〇S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スノ○M</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スノ○S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エコス〇小判</t>
+    <rPh sb="4" eb="6">
+      <t>コバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エコセレ〇中判</t>
+    <rPh sb="5" eb="7">
+      <t>チュウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エコセレ〇小判</t>
+    <rPh sb="5" eb="7">
+      <t>コバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>36gファイ○ソフト</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1254,7 +1304,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6462,12 +6512,24 @@
         <f t="shared" ref="U62:U65" si="43">32*18*T62</f>
         <v>11174.4</v>
       </c>
-      <c r="V62" s="1"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
+      <c r="V62" s="14">
+        <v>193.33333333333334</v>
+      </c>
+      <c r="W62" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X62" s="14">
+        <v>18.256666666666668</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>9.92</v>
+      </c>
+      <c r="Z62" s="14">
+        <v>3.8433333333333337</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="1">
@@ -6539,12 +6601,24 @@
         <f t="shared" si="43"/>
         <v>10857.6</v>
       </c>
-      <c r="V63" s="1"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
+      <c r="V63" s="14">
+        <v>193.33333333333334</v>
+      </c>
+      <c r="W63" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X63" s="14">
+        <v>18.256666666666668</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>9.92</v>
+      </c>
+      <c r="Z63" s="14">
+        <v>3.8433333333333337</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="1">
@@ -6616,12 +6690,24 @@
         <f t="shared" si="43"/>
         <v>8064</v>
       </c>
-      <c r="V64" s="1"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
+      <c r="V64" s="14">
+        <v>193.33333333333334</v>
+      </c>
+      <c r="W64" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X64" s="14">
+        <v>18.256666666666668</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>9.92</v>
+      </c>
+      <c r="Z64" s="14">
+        <v>3.8433333333333337</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="1">
@@ -6693,12 +6779,24 @@
         <f t="shared" si="43"/>
         <v>10886.4</v>
       </c>
-      <c r="V65" s="1"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
+      <c r="V65" s="14">
+        <v>193.33333333333334</v>
+      </c>
+      <c r="W65" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X65" s="14">
+        <v>18.256666666666668</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>9.92</v>
+      </c>
+      <c r="Z65" s="14">
+        <v>3.8433333333333337</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="1">
@@ -6770,12 +6868,24 @@
         <f t="shared" ref="U66:U67" si="50">32*18*T66</f>
         <v>10195.199999999999</v>
       </c>
-      <c r="V66" s="1"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
+      <c r="V66" s="14">
+        <v>215.66666666666666</v>
+      </c>
+      <c r="W66" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X66" s="14">
+        <v>22.66333333333333</v>
+      </c>
+      <c r="Y66" s="14">
+        <v>10.396666666666667</v>
+      </c>
+      <c r="Z66" s="14">
+        <v>4.4933333333333332</v>
+      </c>
+      <c r="AA66" s="14">
+        <v>2.2866666666666666</v>
+      </c>
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="1">
@@ -6847,12 +6957,24 @@
         <f t="shared" si="50"/>
         <v>8035.2</v>
       </c>
-      <c r="V67" s="1"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
+      <c r="V67" s="14">
+        <v>215.66666666666666</v>
+      </c>
+      <c r="W67" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X67" s="14">
+        <v>22.66333333333333</v>
+      </c>
+      <c r="Y67" s="14">
+        <v>10.396666666666667</v>
+      </c>
+      <c r="Z67" s="14">
+        <v>4.4933333333333332</v>
+      </c>
+      <c r="AA67" s="14">
+        <v>2.2866666666666666</v>
+      </c>
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="1">
@@ -6924,12 +7046,24 @@
         <f t="shared" ref="U68:U70" si="56">32*18*T68</f>
         <v>9878.4</v>
       </c>
-      <c r="V68" s="1"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
+      <c r="V68" s="14">
+        <v>215.66666666666666</v>
+      </c>
+      <c r="W68" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X68" s="14">
+        <v>22.66333333333333</v>
+      </c>
+      <c r="Y68" s="14">
+        <v>10.396666666666667</v>
+      </c>
+      <c r="Z68" s="14">
+        <v>4.4933333333333332</v>
+      </c>
+      <c r="AA68" s="14">
+        <v>2.2866666666666666</v>
+      </c>
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="1">
@@ -7001,12 +7135,24 @@
         <f t="shared" si="56"/>
         <v>11232</v>
       </c>
-      <c r="V69" s="1"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
+      <c r="V69" s="14">
+        <v>215.66666666666666</v>
+      </c>
+      <c r="W69" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X69" s="14">
+        <v>22.66333333333333</v>
+      </c>
+      <c r="Y69" s="14">
+        <v>10.396666666666667</v>
+      </c>
+      <c r="Z69" s="14">
+        <v>4.4933333333333332</v>
+      </c>
+      <c r="AA69" s="14">
+        <v>2.2866666666666666</v>
+      </c>
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="1">
@@ -7382,12 +7528,24 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
+      <c r="V74" s="14">
+        <v>627.33333333333337</v>
+      </c>
+      <c r="W74" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X74" s="14">
+        <v>15.870000000000003</v>
+      </c>
+      <c r="Y74" s="14">
+        <v>7.4533333333333331</v>
+      </c>
+      <c r="Z74" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="AA74" s="14">
+        <v>1.5566666666666666</v>
+      </c>
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="1">
@@ -7418,7 +7576,9 @@
       <c r="J75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K75" s="1"/>
+      <c r="K75" s="1">
+        <v>14</v>
+      </c>
       <c r="L75" s="1">
         <v>367</v>
       </c>
@@ -7426,35 +7586,51 @@
         <f t="shared" si="68"/>
         <v>1.8168316831683169</v>
       </c>
-      <c r="N75" s="1"/>
+      <c r="N75" s="1">
+        <v>163</v>
+      </c>
       <c r="O75" s="5">
         <f t="shared" si="63"/>
-        <v>367</v>
+        <v>204</v>
       </c>
       <c r="P75" s="4">
         <f t="shared" si="64"/>
-        <v>202</v>
-      </c>
-      <c r="Q75" s="1"/>
+        <v>112.283378746594</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>302</v>
+      </c>
       <c r="R75" s="4">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2.6896233741021165</v>
       </c>
       <c r="S75" s="4">
         <f t="shared" si="66"/>
-        <v>-1.8168316831683169</v>
+        <v>0.8727916909337996</v>
       </c>
       <c r="T75" s="1"/>
       <c r="U75" s="5">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
+      <c r="V75" s="14">
+        <v>627.33333333333337</v>
+      </c>
+      <c r="W75" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X75" s="14">
+        <v>15.870000000000003</v>
+      </c>
+      <c r="Y75" s="14">
+        <v>7.4533333333333331</v>
+      </c>
+      <c r="Z75" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="AA75" s="14">
+        <v>1.5566666666666666</v>
+      </c>
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="1">
@@ -7485,41 +7661,61 @@
       <c r="J76" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="K76" s="1">
+        <v>18</v>
+      </c>
+      <c r="L76" s="1">
+        <v>366</v>
+      </c>
       <c r="M76" s="4">
         <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="N76" s="1"/>
+        <v>1.8118811881188119</v>
+      </c>
+      <c r="N76" s="1">
+        <v>113</v>
+      </c>
       <c r="O76" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="4" t="str">
+        <v>253</v>
+      </c>
+      <c r="P76" s="4">
         <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="4" t="str">
+        <v>139.63387978142077</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>384</v>
+      </c>
+      <c r="R76" s="4">
         <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="S76" s="4" t="str">
+        <v>2.7500489179352714</v>
+      </c>
+      <c r="S76" s="4">
         <f t="shared" si="66"/>
-        <v/>
+        <v>0.93816772981645946</v>
       </c>
       <c r="T76" s="1"/>
       <c r="U76" s="5">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
+      <c r="V76" s="14">
+        <v>627.33333333333337</v>
+      </c>
+      <c r="W76" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X76" s="14">
+        <v>15.870000000000003</v>
+      </c>
+      <c r="Y76" s="14">
+        <v>7.4533333333333331</v>
+      </c>
+      <c r="Z76" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="AA76" s="14">
+        <v>1.5566666666666666</v>
+      </c>
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="1">
@@ -7550,41 +7746,61 @@
       <c r="J77" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="K77" s="1">
+        <v>18</v>
+      </c>
+      <c r="L77" s="1">
+        <v>366</v>
+      </c>
       <c r="M77" s="4">
         <f t="shared" ref="M77:M92" si="69">L77/(H77+2)</f>
-        <v>0</v>
-      </c>
-      <c r="N77" s="1"/>
+        <v>1.8118811881188119</v>
+      </c>
+      <c r="N77" s="1">
+        <v>141</v>
+      </c>
       <c r="O77" s="5">
         <f t="shared" ref="O77:O92" si="70">L77-N77</f>
-        <v>0</v>
-      </c>
-      <c r="P77" s="4" t="str">
+        <v>225</v>
+      </c>
+      <c r="P77" s="4">
         <f t="shared" ref="P77:P92" si="71">IFERROR(O77/M77,"")</f>
-        <v/>
-      </c>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="4" t="str">
+        <v>124.18032786885246</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>359</v>
+      </c>
+      <c r="R77" s="4">
         <f t="shared" ref="R77:R92" si="72">IFERROR(Q77/P77,"")</f>
-        <v/>
-      </c>
-      <c r="S77" s="4" t="str">
+        <v>2.8909570957095712</v>
+      </c>
+      <c r="S77" s="4">
         <f t="shared" ref="S77:S92" si="73">IFERROR(R77-M77,"")</f>
-        <v/>
+        <v>1.0790759075907592</v>
       </c>
       <c r="T77" s="1"/>
       <c r="U77" s="5">
         <f t="shared" ref="U77:U92" si="74">32*18*T77</f>
         <v>0</v>
       </c>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
+      <c r="V77" s="14">
+        <v>627.33333333333337</v>
+      </c>
+      <c r="W77" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X77" s="14">
+        <v>15.870000000000003</v>
+      </c>
+      <c r="Y77" s="14">
+        <v>7.4533333333333331</v>
+      </c>
+      <c r="Z77" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="AA77" s="14">
+        <v>1.5566666666666666</v>
+      </c>
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="1">
@@ -7600,7 +7816,9 @@
       <c r="E78" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G78" s="1" t="s">
         <v>34</v>
       </c>
@@ -7613,29 +7831,37 @@
       <c r="J78" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="K78" s="1">
+        <v>18</v>
+      </c>
+      <c r="L78" s="1">
+        <v>365</v>
+      </c>
       <c r="M78" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="1"/>
+        <v>1.806930693069307</v>
+      </c>
+      <c r="N78" s="1">
+        <v>105</v>
+      </c>
       <c r="O78" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P78" s="4" t="str">
+        <v>260</v>
+      </c>
+      <c r="P78" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="4" t="str">
+        <v>143.89041095890411</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>445</v>
+      </c>
+      <c r="R78" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S78" s="4" t="str">
+        <v>3.0926313785224675</v>
+      </c>
+      <c r="S78" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>1.2857006854531605</v>
       </c>
       <c r="T78" s="1"/>
       <c r="U78" s="5">
@@ -7663,7 +7889,9 @@
       <c r="E79" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G79" s="1" t="s">
         <v>34</v>
       </c>
@@ -7676,29 +7904,37 @@
       <c r="J79" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="K79" s="1">
+        <v>16</v>
+      </c>
+      <c r="L79" s="1">
+        <v>363</v>
+      </c>
       <c r="M79" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="1"/>
+        <v>1.7970297029702971</v>
+      </c>
+      <c r="N79" s="1">
+        <v>159</v>
+      </c>
       <c r="O79" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="4" t="str">
+        <v>204</v>
+      </c>
+      <c r="P79" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="4" t="str">
+        <v>113.52066115702479</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>318</v>
+      </c>
+      <c r="R79" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S79" s="4" t="str">
+        <v>2.8012521840419335</v>
+      </c>
+      <c r="S79" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>1.0042224810716365</v>
       </c>
       <c r="T79" s="1"/>
       <c r="U79" s="5">
@@ -7726,7 +7962,9 @@
       <c r="E80" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G80" s="1" t="s">
         <v>34</v>
       </c>
@@ -7739,29 +7977,37 @@
       <c r="J80" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="K80" s="1">
+        <v>13</v>
+      </c>
+      <c r="L80" s="1">
+        <v>362</v>
+      </c>
       <c r="M80" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N80" s="1"/>
+        <v>1.7920792079207921</v>
+      </c>
+      <c r="N80" s="1">
+        <v>134</v>
+      </c>
       <c r="O80" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P80" s="4" t="str">
+        <v>228</v>
+      </c>
+      <c r="P80" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="4" t="str">
+        <v>127.22651933701657</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>415</v>
+      </c>
+      <c r="R80" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S80" s="4" t="str">
+        <v>3.2618985582768802</v>
+      </c>
+      <c r="S80" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>1.4698193503560881</v>
       </c>
       <c r="T80" s="1"/>
       <c r="U80" s="5">
@@ -7789,7 +8035,9 @@
       <c r="E81" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G81" s="1" t="s">
         <v>34</v>
       </c>
@@ -7802,29 +8050,37 @@
       <c r="J81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
+      <c r="K81" s="1">
+        <v>16</v>
+      </c>
+      <c r="L81" s="1">
+        <v>369</v>
+      </c>
       <c r="M81" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N81" s="1"/>
+        <v>1.8267326732673268</v>
+      </c>
+      <c r="N81" s="1">
+        <v>199</v>
+      </c>
       <c r="O81" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P81" s="4" t="str">
+        <v>170</v>
+      </c>
+      <c r="P81" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="4" t="str">
+        <v>93.062330623306224</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>280</v>
+      </c>
+      <c r="R81" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S81" s="4" t="str">
+        <v>3.0087361677344209</v>
+      </c>
+      <c r="S81" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>1.1820034944670941</v>
       </c>
       <c r="T81" s="1"/>
       <c r="U81" s="5">
@@ -7852,7 +8108,9 @@
       <c r="E82" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G82" s="1" t="s">
         <v>34</v>
       </c>
@@ -7865,29 +8123,37 @@
       <c r="J82" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
+      <c r="K82" s="1">
+        <v>16</v>
+      </c>
+      <c r="L82" s="1">
+        <v>418</v>
+      </c>
       <c r="M82" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N82" s="1"/>
+        <v>2.0693069306930694</v>
+      </c>
+      <c r="N82" s="1">
+        <v>147</v>
+      </c>
       <c r="O82" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P82" s="4" t="str">
+        <v>271</v>
+      </c>
+      <c r="P82" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="4" t="str">
+        <v>130.96172248803828</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>280</v>
+      </c>
+      <c r="R82" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S82" s="4" t="str">
+        <v>2.1380293010850902</v>
+      </c>
+      <c r="S82" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>6.8722370392020782E-2</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="5">
@@ -7915,7 +8181,9 @@
       <c r="E83" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G83" s="1" t="s">
         <v>34</v>
       </c>
@@ -7928,29 +8196,37 @@
       <c r="J83" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
+      <c r="K83" s="1">
+        <v>16</v>
+      </c>
+      <c r="L83" s="1">
+        <v>416</v>
+      </c>
       <c r="M83" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="1"/>
+        <v>2.0594059405940595</v>
+      </c>
+      <c r="N83" s="1">
+        <v>186</v>
+      </c>
       <c r="O83" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P83" s="4" t="str">
+        <v>230</v>
+      </c>
+      <c r="P83" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="4" t="str">
+        <v>111.68269230769231</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>350</v>
+      </c>
+      <c r="R83" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S83" s="4" t="str">
+        <v>3.1338786052518297</v>
+      </c>
+      <c r="S83" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>1.0744726646577702</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="5">
@@ -7978,7 +8254,9 @@
       <c r="E84" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G84" s="1" t="s">
         <v>34</v>
       </c>
@@ -8041,7 +8319,9 @@
       <c r="E85" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>34</v>
       </c>
@@ -8054,29 +8334,37 @@
       <c r="J85" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
+      <c r="K85" s="1">
+        <v>15</v>
+      </c>
+      <c r="L85" s="1">
+        <v>419</v>
+      </c>
       <c r="M85" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N85" s="1"/>
+        <v>2.0742574257425743</v>
+      </c>
+      <c r="N85" s="1">
+        <v>132</v>
+      </c>
       <c r="O85" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P85" s="4" t="str">
+        <v>287</v>
+      </c>
+      <c r="P85" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="4" t="str">
+        <v>138.36276849642005</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>435</v>
+      </c>
+      <c r="R85" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S85" s="4" t="str">
+        <v>3.1439093386690584</v>
+      </c>
+      <c r="S85" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>1.0696519129264841</v>
       </c>
       <c r="T85" s="1"/>
       <c r="U85" s="5">
@@ -8104,12 +8392,14 @@
       <c r="E86" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G86" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H86" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I86" s="1">
         <v>42</v>
@@ -8117,29 +8407,37 @@
       <c r="J86" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
+      <c r="K86" s="1">
+        <v>17</v>
+      </c>
+      <c r="L86" s="1">
+        <v>617</v>
+      </c>
       <c r="M86" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N86" s="1"/>
+        <v>1.5348258706467661</v>
+      </c>
+      <c r="N86" s="1">
+        <v>265</v>
+      </c>
       <c r="O86" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P86" s="4" t="str">
+        <v>352</v>
+      </c>
+      <c r="P86" s="4">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="4" t="str">
+        <v>229.3419773095624</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>563</v>
+      </c>
+      <c r="R86" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S86" s="4" t="str">
+        <v>2.4548493328810492</v>
+      </c>
+      <c r="S86" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>0.92002346223428311</v>
       </c>
       <c r="T86" s="1"/>
       <c r="U86" s="5">
@@ -8167,7 +8465,9 @@
       <c r="E87" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G87" s="1" t="s">
         <v>34</v>
       </c>
@@ -8181,28 +8481,30 @@
         <v>105</v>
       </c>
       <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
+      <c r="L87" s="1">
+        <v>308</v>
+      </c>
       <c r="M87" s="4">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1.5247524752475248</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P87" s="4" t="str">
+        <v>308</v>
+      </c>
+      <c r="P87" s="4">
         <f t="shared" si="71"/>
-        <v/>
+        <v>202</v>
       </c>
       <c r="Q87" s="1"/>
-      <c r="R87" s="4" t="str">
+      <c r="R87" s="4">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="S87" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="S87" s="4">
         <f t="shared" si="73"/>
-        <v/>
+        <v>-1.5247524752475248</v>
       </c>
       <c r="T87" s="1"/>
       <c r="U87" s="5">
@@ -8230,7 +8532,9 @@
       <c r="E88" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G88" s="1" t="s">
         <v>34</v>
       </c>
@@ -8293,7 +8597,9 @@
       <c r="E89" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>34</v>
       </c>
@@ -8356,7 +8662,9 @@
       <c r="E90" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G90" s="1" t="s">
         <v>34</v>
       </c>
@@ -8419,7 +8727,9 @@
       <c r="E91" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G91" s="1" t="s">
         <v>34</v>
       </c>
@@ -8482,7 +8792,9 @@
       <c r="E92" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G92" s="1" t="s">
         <v>34</v>
       </c>
@@ -8545,7 +8857,9 @@
       <c r="E93" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G93" s="1" t="s">
         <v>34</v>
       </c>
@@ -8608,7 +8922,9 @@
       <c r="E94" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G94" s="1" t="s">
         <v>34</v>
       </c>
@@ -8671,7 +8987,9 @@
       <c r="E95" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G95" s="1" t="s">
         <v>34</v>
       </c>
@@ -8734,7 +9052,9 @@
       <c r="E96" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G96" s="1" t="s">
         <v>34</v>
       </c>
@@ -8797,7 +9117,9 @@
       <c r="E97" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G97" s="1" t="s">
         <v>34</v>
       </c>
@@ -8860,7 +9182,9 @@
       <c r="E98" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G98" s="1" t="s">
         <v>34</v>
       </c>
@@ -8923,7 +9247,9 @@
       <c r="E99" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G99" s="1" t="s">
         <v>34</v>
       </c>
@@ -8986,7 +9312,9 @@
       <c r="E100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G100" s="1" t="s">
         <v>34</v>
       </c>
@@ -9049,7 +9377,9 @@
       <c r="E101" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G101" s="1" t="s">
         <v>34</v>
       </c>
@@ -9112,7 +9442,9 @@
       <c r="E102" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G102" s="1" t="s">
         <v>34</v>
       </c>
@@ -9175,7 +9507,9 @@
       <c r="E103" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G103" s="1" t="s">
         <v>34</v>
       </c>
@@ -9238,7 +9572,9 @@
       <c r="E104" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G104" s="1" t="s">
         <v>34</v>
       </c>
@@ -9301,7 +9637,9 @@
       <c r="E105" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G105" s="1" t="s">
         <v>34</v>
       </c>
@@ -9364,7 +9702,9 @@
       <c r="E106" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="G106" s="1" t="s">
         <v>34</v>
       </c>
@@ -9427,7 +9767,9 @@
       <c r="E107" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="G107" s="1" t="s">
         <v>34</v>
       </c>
@@ -9490,7 +9832,9 @@
       <c r="E108" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="G108" s="1" t="s">
         <v>34</v>
       </c>
@@ -9553,7 +9897,9 @@
       <c r="E109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="G109" s="1" t="s">
         <v>34</v>
       </c>
